--- a/Documentation/Project 02 - Smart Parking - Project Planning.xlsx
+++ b/Documentation/Project 02 - Smart Parking - Project Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bluepineapple.sharepoint.com/sites/Internship2025-Project02-SmartParking/Shared Documents/Project 02 - Smart Parking/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prof\Internship\internship-parking-project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB901D64-D29D-42AD-A8C8-9AE35546FB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF0163E-4963-4475-8014-6A7088EF5228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -1372,7 +1372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1973,25 +1973,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="55" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="27.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="27.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45">
+    <row r="1" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="409.6">
+    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="336">
+    <row r="3" spans="1:9" ht="316.8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="213">
+    <row r="4" spans="1:9" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="409.6">
+    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="405" customHeight="1">
+    <row r="6" spans="1:9" ht="405" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="409.6">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>30</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="409.6">
+    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="346.5" customHeight="1">
+    <row r="9" spans="1:9" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="409.6">
+    <row r="10" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="409.6">
+    <row r="11" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="244.5">
+    <row r="12" spans="1:9" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="321">
+    <row r="13" spans="1:9" ht="316.8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="290.25">
+    <row r="14" spans="1:9" ht="288" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>60</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="409.6">
+    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>64</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="366">
+    <row r="16" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>68</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="409.6">
+    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>72</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="409.6">
+    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="409.6">
+    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>80</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="409.6">
+    <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>84</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="331.15">
+    <row r="21" spans="1:9" ht="331.2" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>88</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="321">
+    <row r="22" spans="1:9" ht="302.39999999999998" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>93</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="273.60000000000002">
+    <row r="23" spans="1:9" ht="273.60000000000002" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>97</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="305.25">
+    <row r="24" spans="1:9" ht="288" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>101</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="290.25">
+    <row r="25" spans="1:9" ht="273.60000000000002" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>105</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="305.25">
+    <row r="26" spans="1:9" ht="288" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>109</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2755,7 +2755,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:9" ht="14.45">
+    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
@@ -2789,15 +2789,15 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>114</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>34</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>38</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>43</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>47</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>51</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>55</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>60</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>64</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>68</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>72</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>76</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>80</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>84</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>88</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>93</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>97</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>101</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>105</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>109</v>
       </c>
@@ -3145,13 +3145,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="26"/>
       <c r="E27" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="8" t="s">
         <v>80</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="8" t="s">
         <v>84</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="26" t="s">
         <v>88</v>
       </c>
@@ -3175,25 +3175,25 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="26"/>
       <c r="E31" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="26"/>
       <c r="E32" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="26"/>
       <c r="E33" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="8" t="s">
         <v>93</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" s="8" t="s">
         <v>97</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" s="8" t="s">
         <v>101</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" s="8" t="s">
         <v>105</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D38" s="8" t="s">
         <v>109</v>
       </c>
@@ -3254,14 +3254,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>120</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>45734</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>45736</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>45737</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>45747</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>45749</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>45754</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>45762</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>45769</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>45775</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>45777</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>45782</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>45784</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>45789</v>
       </c>
@@ -3424,16 +3424,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4817836F-428B-42EF-982B-9B1894899303}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="97.875" customWidth="1"/>
+    <col min="2" max="2" width="137.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.45">
+    <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>143</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>145</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>147</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>149</v>
       </c>
@@ -3480,16 +3480,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="61f74041-5b1d-4d2f-afaf-be24360a4498">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DBF5E4C675AD8A49B257CF28480F9044" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1794fc039d7377f8cabe73faaba8a24a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="61f74041-5b1d-4d2f-afaf-be24360a4498" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4415906317a520e5b26f59d0bb221243" ns2:_="">
     <xsd:import namespace="61f74041-5b1d-4d2f-afaf-be24360a4498"/>
@@ -3667,14 +3657,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="61f74041-5b1d-4d2f-afaf-be24360a4498">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FC4E802-4AFE-48B6-AD69-681D409FFD8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FC4E802-4AFE-48B6-AD69-681D409FFD8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9501CEF1-702D-4ED4-80B6-69A2CD88FA2C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA1C4679-A4DF-4E78-B699-7BBD98E530C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="61f74041-5b1d-4d2f-afaf-be24360a4498"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA1C4679-A4DF-4E78-B699-7BBD98E530C4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9501CEF1-702D-4ED4-80B6-69A2CD88FA2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="61f74041-5b1d-4d2f-afaf-be24360a4498"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>